--- a/data/trans_orig/P6604-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6604-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>107228</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>88179</v>
+        <v>89652</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124555</v>
+        <v>124967</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2799907580793974</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2302488934513807</v>
+        <v>0.2340969891068085</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3252344193161031</v>
+        <v>0.326310336244337</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -765,19 +765,19 @@
         <v>61566</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49322</v>
+        <v>49254</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74102</v>
+        <v>73842</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3953888617365212</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.31675839721974</v>
+        <v>0.3163185405098135</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4759033676012534</v>
+        <v>0.4742311360078335</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>165</v>
@@ -786,19 +786,19 @@
         <v>168794</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>144994</v>
+        <v>146519</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192273</v>
+        <v>189800</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3133474096533033</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2691655461323323</v>
+        <v>0.2719949931916325</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3569334666877079</v>
+        <v>0.3523420086509307</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>115070</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97387</v>
+        <v>96835</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134570</v>
+        <v>135455</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3004656249021436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2542943893817211</v>
+        <v>0.2528507414375548</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3513839113646235</v>
+        <v>0.3536964828937219</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -836,19 +836,19 @@
         <v>50697</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39885</v>
+        <v>39494</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63073</v>
+        <v>63027</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3255852871635696</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2561538292233865</v>
+        <v>0.2536407089521304</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4050691176840952</v>
+        <v>0.4047772130661441</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>156</v>
@@ -857,19 +857,19 @@
         <v>165766</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>141893</v>
+        <v>144650</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>186229</v>
+        <v>188709</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3077266438890605</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2634079429216499</v>
+        <v>0.2685255053592852</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3457135970996308</v>
+        <v>0.3503176815437938</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>93095</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>76244</v>
+        <v>76915</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>111703</v>
+        <v>110836</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2430856191335531</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1990859762073376</v>
+        <v>0.2008385905304976</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2916742581917001</v>
+        <v>0.2894104321571794</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -907,19 +907,19 @@
         <v>27456</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18609</v>
+        <v>18446</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39541</v>
+        <v>37869</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1763287936241637</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1195095718063934</v>
+        <v>0.1184661681646201</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2539410954954608</v>
+        <v>0.243205070107587</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>116</v>
@@ -928,19 +928,19 @@
         <v>120551</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>103437</v>
+        <v>102293</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>140978</v>
+        <v>140531</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2237890787388075</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1920186790615591</v>
+        <v>0.1898952910176452</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2617098565878919</v>
+        <v>0.2608803793292901</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>67578</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52163</v>
+        <v>53265</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83595</v>
+        <v>84410</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1764579978849059</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1362059874688641</v>
+        <v>0.1390824551828455</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2182803478665873</v>
+        <v>0.2204077915750421</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -978,19 +978,19 @@
         <v>15991</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9595</v>
+        <v>10121</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24816</v>
+        <v>24543</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1026970574757456</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06162145386879347</v>
+        <v>0.06500182524579752</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1593745531339554</v>
+        <v>0.1576223456907639</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -999,19 +999,19 @@
         <v>83569</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67065</v>
+        <v>67362</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100544</v>
+        <v>102735</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1551368677188287</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.124497732479676</v>
+        <v>0.1250501202287354</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1866493231173276</v>
+        <v>0.1907150357457696</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>185336</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>160754</v>
+        <v>163111</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>209338</v>
+        <v>209275</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.332191524301729</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2881305573821607</v>
+        <v>0.2923558397974201</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3752120177664698</v>
+        <v>0.3750991923185532</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>135</v>
@@ -1124,19 +1124,19 @@
         <v>147156</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>130156</v>
+        <v>128736</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>162502</v>
+        <v>163404</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5516042630697273</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4878799534515695</v>
+        <v>0.482556934652821</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6091243955580686</v>
+        <v>0.6125059496204721</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>299</v>
@@ -1145,19 +1145,19 @@
         <v>332493</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>303638</v>
+        <v>301553</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>363926</v>
+        <v>360542</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4031685993495527</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3681800173567014</v>
+        <v>0.3656522154584663</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4412834700165348</v>
+        <v>0.4371798557646464</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>125012</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>104557</v>
+        <v>103981</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144770</v>
+        <v>144919</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2240679179446343</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1874048965268528</v>
+        <v>0.1863725930135503</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2594807635138585</v>
+        <v>0.2597479383591774</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -1195,19 +1195,19 @@
         <v>57702</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44047</v>
+        <v>45604</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72625</v>
+        <v>73318</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2162902641332169</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1651055963894821</v>
+        <v>0.1709440754012038</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2722289930893664</v>
+        <v>0.2748266062674582</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>170</v>
@@ -1216,19 +1216,19 @@
         <v>182714</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161108</v>
+        <v>160214</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>209114</v>
+        <v>209450</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.221551951363256</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1953537056639184</v>
+        <v>0.1942701785372307</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2535634309618838</v>
+        <v>0.2539709254237256</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>127690</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>107893</v>
+        <v>105501</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149004</v>
+        <v>148638</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2288671677783254</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1933834732966501</v>
+        <v>0.1890964937474103</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2670707256286439</v>
+        <v>0.2664140072817688</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -1266,19 +1266,19 @@
         <v>34909</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25605</v>
+        <v>24592</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47049</v>
+        <v>46892</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1308527917940539</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09597877290170663</v>
+        <v>0.09217955609900698</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1763582368181048</v>
+        <v>0.1757701638056169</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>152</v>
@@ -1287,19 +1287,19 @@
         <v>162598</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>140442</v>
+        <v>142000</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>187741</v>
+        <v>186779</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1971608331367567</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1702946048643292</v>
+        <v>0.1721841665795322</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2276473773971279</v>
+        <v>0.2264815526322712</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>119882</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>100633</v>
+        <v>99504</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>141166</v>
+        <v>141967</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2148733899753113</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1803717959734621</v>
+        <v>0.1783480490287737</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2530219694975339</v>
+        <v>0.2544580124417944</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -1337,19 +1337,19 @@
         <v>27012</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17771</v>
+        <v>17885</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37955</v>
+        <v>39486</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1012526810030019</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06661241307858404</v>
+        <v>0.06704052007173196</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1422701714102347</v>
+        <v>0.148008352175833</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>133</v>
@@ -1358,19 +1358,19 @@
         <v>146894</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>124525</v>
+        <v>122792</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>170788</v>
+        <v>170560</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1781186161504346</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1509946982189457</v>
+        <v>0.1488931188081498</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2070914468433074</v>
+        <v>0.2068153852000597</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>128416</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>109360</v>
+        <v>108956</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>147777</v>
+        <v>147674</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3171998759481814</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2701298609081281</v>
+        <v>0.2691337635032518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3650257962151763</v>
+        <v>0.3647706607004718</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>101</v>
@@ -1483,19 +1483,19 @@
         <v>99892</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>86251</v>
+        <v>84731</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>114181</v>
+        <v>114716</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4711596452700312</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4068171128337684</v>
+        <v>0.3996467493762882</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5385521304894133</v>
+        <v>0.5410789545273866</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>219</v>
@@ -1504,19 +1504,19 @@
         <v>228308</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>202358</v>
+        <v>205918</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>250259</v>
+        <v>255557</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3701160666021756</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3280477600168085</v>
+        <v>0.3338188863123693</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4057010157398127</v>
+        <v>0.4142897240053558</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>98900</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>83464</v>
+        <v>82275</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>117890</v>
+        <v>117813</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2442940242726716</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.206164551044298</v>
+        <v>0.2032275912737077</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2912005096579993</v>
+        <v>0.2910110184580668</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>58</v>
@@ -1554,19 +1554,19 @@
         <v>57613</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>45361</v>
+        <v>43856</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>72226</v>
+        <v>70702</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2717425442396774</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2139537010809542</v>
+        <v>0.2068537543195955</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3406653471568045</v>
+        <v>0.3334760874865819</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>151</v>
@@ -1575,19 +1575,19 @@
         <v>156514</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>136622</v>
+        <v>133937</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>180733</v>
+        <v>177124</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2537281194401415</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2214808246292383</v>
+        <v>0.2171283798053037</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2929907629955039</v>
+        <v>0.2871399142625425</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>103002</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86008</v>
+        <v>86795</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121977</v>
+        <v>122184</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2544267638087551</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2124485894152546</v>
+        <v>0.2143926010635738</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3012951906846361</v>
+        <v>0.3018073520197398</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -1625,19 +1625,19 @@
         <v>34190</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24380</v>
+        <v>24196</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45139</v>
+        <v>45002</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1612619179935609</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1149927457829401</v>
+        <v>0.1141235064845691</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2129041961292097</v>
+        <v>0.2122574030457359</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>132</v>
@@ -1646,19 +1646,19 @@
         <v>137192</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>116394</v>
+        <v>116427</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157438</v>
+        <v>158357</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2224058744223799</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1886898087545884</v>
+        <v>0.1887429952774856</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2552259735810059</v>
+        <v>0.2567170791707211</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>74523</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59078</v>
+        <v>59283</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>92321</v>
+        <v>93596</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1840793359703919</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1459284244634248</v>
+        <v>0.1464356970638385</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2280414717002621</v>
+        <v>0.2311923098968297</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1696,19 +1696,19 @@
         <v>20319</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12326</v>
+        <v>12480</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31924</v>
+        <v>31501</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09583589249673051</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05813576904131941</v>
+        <v>0.0588653044177898</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1505728318883559</v>
+        <v>0.1485799371506895</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>84</v>
@@ -1717,19 +1717,19 @@
         <v>94842</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>76260</v>
+        <v>77873</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>116037</v>
+        <v>116539</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.153749939535303</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1236272474285651</v>
+        <v>0.1262412329738988</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1881105665808354</v>
+        <v>0.1889237565624575</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>218456</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>195986</v>
+        <v>195559</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>240938</v>
+        <v>240178</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3953559058827103</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3546910737857462</v>
+        <v>0.3539183813858859</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4360429286457049</v>
+        <v>0.4346686225374054</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>195</v>
@@ -1842,19 +1842,19 @@
         <v>204440</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>183794</v>
+        <v>184734</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>224436</v>
+        <v>223246</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.529302303119617</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4758485400682382</v>
+        <v>0.4782839455033476</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.581072862031537</v>
+        <v>0.5779914868224171</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>423</v>
@@ -1863,19 +1863,19 @@
         <v>422896</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>393811</v>
+        <v>390738</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>454234</v>
+        <v>453768</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.450464622377089</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4194836761845386</v>
+        <v>0.4162097935118004</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4838455141914333</v>
+        <v>0.4833492347177488</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>138808</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>118962</v>
+        <v>118815</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>159234</v>
+        <v>159663</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2512104876929818</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2152947830435109</v>
+        <v>0.2150288830316634</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.288178166354694</v>
+        <v>0.2889545449687493</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>74</v>
@@ -1913,19 +1913,19 @@
         <v>80130</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>64352</v>
+        <v>64588</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>95300</v>
+        <v>96859</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2074600700713747</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1666106925083848</v>
+        <v>0.1672201195541702</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2467343513158739</v>
+        <v>0.2507704695445993</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>218</v>
@@ -1934,19 +1934,19 @@
         <v>218938</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>192908</v>
+        <v>193518</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>244882</v>
+        <v>246228</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.233210530912095</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2054837407334665</v>
+        <v>0.2061330097242484</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2608453405746289</v>
+        <v>0.2622791443559365</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>118620</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>99623</v>
+        <v>100311</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>139110</v>
+        <v>136302</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2146756287858241</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1802958626604676</v>
+        <v>0.1815406803935037</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.251757575197026</v>
+        <v>0.2466755204326848</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>55</v>
@@ -1984,19 +1984,19 @@
         <v>59623</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>44834</v>
+        <v>44646</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>75058</v>
+        <v>74918</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1543673242828414</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1160756332146936</v>
+        <v>0.1155889634418211</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1943289734880414</v>
+        <v>0.1939655826818789</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>178</v>
@@ -2005,19 +2005,19 @@
         <v>178244</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>152753</v>
+        <v>153586</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>202353</v>
+        <v>202467</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1898633656442232</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1627110616160671</v>
+        <v>0.1635984022581135</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2155439014057226</v>
+        <v>0.2156656846736938</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>76671</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60767</v>
+        <v>61551</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>94177</v>
+        <v>93418</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1387579776384838</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1099750512391706</v>
+        <v>0.1113937021046914</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1704394163165763</v>
+        <v>0.1690647244954439</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -2055,19 +2055,19 @@
         <v>42051</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30129</v>
+        <v>30584</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54780</v>
+        <v>55591</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1088703025261669</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07800399665544328</v>
+        <v>0.07918287073429524</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1418275272073062</v>
+        <v>0.1439280422130613</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>116</v>
@@ -2076,19 +2076,19 @@
         <v>118722</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>97805</v>
+        <v>100593</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>139038</v>
+        <v>142495</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1264614810665928</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1041811337690232</v>
+        <v>0.1071504612648444</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1481016798180139</v>
+        <v>0.1517842601518858</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>639436</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>598392</v>
+        <v>594582</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>683424</v>
+        <v>682163</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.336848977863016</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3152271995160371</v>
+        <v>0.3132202153108283</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3600209881651917</v>
+        <v>0.3593569101298614</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>491</v>
@@ -2201,19 +2201,19 @@
         <v>513055</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>481592</v>
+        <v>479783</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>544273</v>
+        <v>547403</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5026267812124859</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4718039625783237</v>
+        <v>0.4700308011046605</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5332102459820598</v>
+        <v>0.5362765945574109</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1106</v>
@@ -2222,19 +2222,19 @@
         <v>1152491</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1099997</v>
+        <v>1094198</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1207755</v>
+        <v>1202300</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3948192376164926</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3768358479650121</v>
+        <v>0.3748491712823926</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4137514266433967</v>
+        <v>0.4118826337498727</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>477790</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>443125</v>
+        <v>433636</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>518654</v>
+        <v>513960</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2516950499294701</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2334340931848377</v>
+        <v>0.2284354436877689</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.273221779071332</v>
+        <v>0.2707493280001431</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>234</v>
@@ -2272,19 +2272,19 @@
         <v>246142</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>219363</v>
+        <v>218436</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>272109</v>
+        <v>273150</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2411390500482498</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2149039032030391</v>
+        <v>0.2139961931074312</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2665783240819459</v>
+        <v>0.2675982408746951</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>695</v>
@@ -2293,19 +2293,19 @@
         <v>723932</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>677782</v>
+        <v>679302</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>775121</v>
+        <v>775920</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2480037592819399</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2321938209437642</v>
+        <v>0.2327144373632501</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.265540090359111</v>
+        <v>0.2658139798488524</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>442407</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>402259</v>
+        <v>405138</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>476787</v>
+        <v>479310</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2330557997410331</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2119063106903297</v>
+        <v>0.2134230058142935</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2511667468718968</v>
+        <v>0.2524958672970748</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>152</v>
@@ -2343,19 +2343,19 @@
         <v>156178</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>132874</v>
+        <v>135293</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>179110</v>
+        <v>181468</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1530037882401575</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1301732041259401</v>
+        <v>0.1325430757277471</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1754691941123021</v>
+        <v>0.1777791477818428</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>578</v>
@@ -2364,19 +2364,19 @@
         <v>598585</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>558458</v>
+        <v>555452</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>648855</v>
+        <v>643825</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.20506269205875</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1913158823522236</v>
+        <v>0.1902861171866291</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2222840207419148</v>
+        <v>0.2205610705419053</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>338655</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>307134</v>
+        <v>305679</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>373640</v>
+        <v>373738</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1784001724664808</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1617953510107068</v>
+        <v>0.16102885710637</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1968299646841961</v>
+        <v>0.1968816189007553</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>99</v>
@@ -2414,19 +2414,19 @@
         <v>105372</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>86318</v>
+        <v>83803</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>126806</v>
+        <v>126722</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1032303804991068</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08456338398393218</v>
+        <v>0.08210015323435495</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1242281473265921</v>
+        <v>0.1241462677727238</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>414</v>
@@ -2435,19 +2435,19 @@
         <v>444027</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>401989</v>
+        <v>405064</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>484176</v>
+        <v>483545</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1521143110428175</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1377130651456754</v>
+        <v>0.1387663606754643</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1658685034467978</v>
+        <v>0.165652264858317</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>67191</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53318</v>
+        <v>52892</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83030</v>
+        <v>82401</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2507756165169733</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1989962372397501</v>
+        <v>0.1974065190435647</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3098911651963616</v>
+        <v>0.3075431455196731</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -2800,19 +2800,19 @@
         <v>50594</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39084</v>
+        <v>39034</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62403</v>
+        <v>62624</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3137103100837738</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2423452497170297</v>
+        <v>0.2420327372263925</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3869382283347838</v>
+        <v>0.3883055935833094</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>108</v>
@@ -2821,19 +2821,19 @@
         <v>117785</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>99732</v>
+        <v>99958</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136662</v>
+        <v>137411</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2744233269952831</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2323622585666246</v>
+        <v>0.2328877396935114</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.318403851800973</v>
+        <v>0.3201493577947281</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>101386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>85172</v>
+        <v>85625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>116947</v>
+        <v>117914</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3783997835952145</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.317885750775996</v>
+        <v>0.3195741643045211</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4364752303181837</v>
+        <v>0.4400871575074703</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -2871,19 +2871,19 @@
         <v>63422</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51087</v>
+        <v>50235</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>75627</v>
+        <v>76610</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3932557467172036</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3167715961659223</v>
+        <v>0.3114873461035778</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4689333460418174</v>
+        <v>0.4750242137641054</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>160</v>
@@ -2892,19 +2892,19 @@
         <v>164808</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>144124</v>
+        <v>144440</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>184832</v>
+        <v>183988</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3839819115897261</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3357908731463429</v>
+        <v>0.3365252926294179</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4306338498274901</v>
+        <v>0.4286673718897525</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>61925</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49794</v>
+        <v>48985</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>77289</v>
+        <v>78591</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2311208497917788</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1858448359585491</v>
+        <v>0.1828237944249979</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2884622380762483</v>
+        <v>0.2933224143650503</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -2942,19 +2942,19 @@
         <v>32980</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23243</v>
+        <v>22732</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44892</v>
+        <v>46314</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2044957395124966</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1441199512820094</v>
+        <v>0.1409538280781966</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2783577260993601</v>
+        <v>0.2871766771871305</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>90</v>
@@ -2963,19 +2963,19 @@
         <v>94905</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>78947</v>
+        <v>78232</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>114870</v>
+        <v>111594</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2211164648706186</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1839367718782161</v>
+        <v>0.1822707094237255</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2676326701865455</v>
+        <v>0.2599991702354402</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>37431</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26737</v>
+        <v>27000</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50034</v>
+        <v>49818</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1397037500960334</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09978783539615718</v>
+        <v>0.1007727039754504</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1867398518561017</v>
+        <v>0.185935657130408</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -3013,19 +3013,19 @@
         <v>14279</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8221</v>
+        <v>8277</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22220</v>
+        <v>22787</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08853820368652604</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05097481942569556</v>
+        <v>0.05132279317606633</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.137779054569483</v>
+        <v>0.1412901317891838</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -3034,19 +3034,19 @@
         <v>51710</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40327</v>
+        <v>39648</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65925</v>
+        <v>66310</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1204782965443722</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09395683623992147</v>
+        <v>0.09237551288363734</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1535965655190896</v>
+        <v>0.1544926329505214</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>126924</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>106959</v>
+        <v>107293</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>147224</v>
+        <v>146897</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3090509114153795</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2604371844327543</v>
+        <v>0.2612496491865124</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3584790307417272</v>
+        <v>0.3576818032405424</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>87</v>
@@ -3159,19 +3159,19 @@
         <v>98337</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>83242</v>
+        <v>82544</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>115357</v>
+        <v>117286</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.363419486957169</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3076356733833835</v>
+        <v>0.3050534607482628</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4263218149508102</v>
+        <v>0.4334490148877298</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>199</v>
@@ -3180,19 +3180,19 @@
         <v>225261</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>200789</v>
+        <v>199373</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>253195</v>
+        <v>250872</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3306448076725271</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2947234936924966</v>
+        <v>0.2926453660567069</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3716472471748386</v>
+        <v>0.3682377523344558</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>132608</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113540</v>
+        <v>114973</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>153007</v>
+        <v>153413</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3228908622330287</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2764607747966099</v>
+        <v>0.2799505510076647</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3725596510378152</v>
+        <v>0.3735494641529281</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -3230,19 +3230,19 @@
         <v>98041</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82429</v>
+        <v>83546</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115387</v>
+        <v>115571</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3623254214554543</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3046290803773424</v>
+        <v>0.3087585257340513</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.426432599368634</v>
+        <v>0.4271124234976941</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>215</v>
@@ -3251,19 +3251,19 @@
         <v>230649</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>207211</v>
+        <v>205318</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>257209</v>
+        <v>256895</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3385533248285564</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3041505524722641</v>
+        <v>0.3013714784199364</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.377538501228372</v>
+        <v>0.3770782072753294</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>91912</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>75955</v>
+        <v>75801</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110813</v>
+        <v>111383</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.223798006639919</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1849441197410984</v>
+        <v>0.1845698323232423</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2698208398076827</v>
+        <v>0.2712094882596092</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>48</v>
@@ -3301,19 +3301,19 @@
         <v>52682</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40202</v>
+        <v>40641</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>67630</v>
+        <v>67086</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1946966706584862</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1485738345728724</v>
+        <v>0.1501944219111615</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2499363781676709</v>
+        <v>0.2479281998240971</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>136</v>
@@ -3322,19 +3322,19 @@
         <v>144594</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>124676</v>
+        <v>123512</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>168590</v>
+        <v>168192</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2122396528691008</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1830033986367007</v>
+        <v>0.1812943058957498</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.247461719940743</v>
+        <v>0.2468771303485801</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>59246</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46700</v>
+        <v>46610</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>75637</v>
+        <v>74769</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1442602197116728</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1137113958251291</v>
+        <v>0.1134907117587683</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1841702994840281</v>
+        <v>0.1820562428114879</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -3372,19 +3372,19 @@
         <v>21527</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13725</v>
+        <v>13132</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33614</v>
+        <v>32458</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07955842092889046</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05072302272047139</v>
+        <v>0.04853035701808092</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1242271490787834</v>
+        <v>0.1199547537718832</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>73</v>
@@ -3393,19 +3393,19 @@
         <v>80774</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>64593</v>
+        <v>65532</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>100137</v>
+        <v>102333</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1185622146298157</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09481149861716207</v>
+        <v>0.0961896694365342</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1469833915648633</v>
+        <v>0.1502069716301205</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>95320</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>78008</v>
+        <v>79018</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>112599</v>
+        <v>114097</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2983894671220383</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2441946982078516</v>
+        <v>0.2473576082410313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3524782133448865</v>
+        <v>0.3571683794540538</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -3518,19 +3518,19 @@
         <v>75128</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>60375</v>
+        <v>59966</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90196</v>
+        <v>89925</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.350507014999221</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2816780155696901</v>
+        <v>0.2797662677748528</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4208033739384706</v>
+        <v>0.4195405593384416</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>153</v>
@@ -3539,19 +3539,19 @@
         <v>170448</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>149159</v>
+        <v>148397</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>192404</v>
+        <v>195266</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3193170856887359</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2794343860543584</v>
+        <v>0.2780066594028009</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3604482353207824</v>
+        <v>0.3658112869451806</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>107969</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>90174</v>
+        <v>89217</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>127842</v>
+        <v>125571</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3379852111680849</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2822790715234608</v>
+        <v>0.279283874737367</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4001943946793152</v>
+        <v>0.3930871430225343</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>67</v>
@@ -3589,19 +3589,19 @@
         <v>75476</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>60481</v>
+        <v>61735</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>89874</v>
+        <v>90896</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.352128338903075</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2821697186651685</v>
+        <v>0.288020711550099</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4192998653354096</v>
+        <v>0.4240696241006526</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>167</v>
@@ -3610,19 +3610,19 @@
         <v>183445</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>160498</v>
+        <v>160888</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>207190</v>
+        <v>210113</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3436643345081824</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3006765352987925</v>
+        <v>0.3014069725148125</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3881489270199692</v>
+        <v>0.3936253199556849</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>86084</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69770</v>
+        <v>69482</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>104211</v>
+        <v>103205</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2694776369703278</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2184087493640326</v>
+        <v>0.2175063719800129</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.326221749444732</v>
+        <v>0.3230709589611311</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -3660,19 +3660,19 @@
         <v>40795</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28996</v>
+        <v>29856</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54916</v>
+        <v>54772</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1903289254827054</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1352803054327433</v>
+        <v>0.1392916345678229</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2562094470562321</v>
+        <v>0.2555375327086783</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>113</v>
@@ -3681,19 +3681,19 @@
         <v>126880</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>107960</v>
+        <v>107063</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>149758</v>
+        <v>150033</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2376957494578545</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2022511626580448</v>
+        <v>0.2005712874118698</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2805555152333143</v>
+        <v>0.2810710921558059</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>30075</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19960</v>
+        <v>20796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42668</v>
+        <v>43481</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09414768473954896</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06248125003033445</v>
+        <v>0.06509905822271302</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1335673489860461</v>
+        <v>0.1361136436759666</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -3731,19 +3731,19 @@
         <v>22942</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14656</v>
+        <v>14275</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34065</v>
+        <v>33235</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1070357206149986</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06837715848593638</v>
+        <v>0.06659998390792173</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1589260869372011</v>
+        <v>0.1550562482076521</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>48</v>
@@ -3752,19 +3752,19 @@
         <v>53018</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40087</v>
+        <v>39854</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67598</v>
+        <v>69009</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09932283034522715</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07509820954748549</v>
+        <v>0.07466157260697154</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1266373052068424</v>
+        <v>0.1292805865746494</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>160890</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>138776</v>
+        <v>140451</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>181090</v>
+        <v>180949</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3887231580891794</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3352947466232327</v>
+        <v>0.3393409455907442</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4375273902230332</v>
+        <v>0.4371873564265342</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>120</v>
@@ -3877,19 +3877,19 @@
         <v>123089</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>105987</v>
+        <v>104791</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>140840</v>
+        <v>140208</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4163489902375745</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3585023028826411</v>
+        <v>0.3544545971150115</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4763925515840789</v>
+        <v>0.4742543181495791</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>272</v>
@@ -3898,19 +3898,19 @@
         <v>283979</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>254583</v>
+        <v>256298</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>311938</v>
+        <v>309946</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4002339342584049</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3588038744992423</v>
+        <v>0.3612218420246534</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4396397719246322</v>
+        <v>0.4368309946648074</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>118671</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>101499</v>
+        <v>100801</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>138917</v>
+        <v>138677</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2867199088647667</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2452298112176612</v>
+        <v>0.2435426457370354</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3356342713725977</v>
+        <v>0.3350545114310901</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>94</v>
@@ -3948,19 +3948,19 @@
         <v>99650</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>82561</v>
+        <v>84349</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>115651</v>
+        <v>117389</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3370661388721116</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2792617648513964</v>
+        <v>0.2853116010464038</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3911914998718393</v>
+        <v>0.3970670638942614</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>212</v>
@@ -3969,19 +3969,19 @@
         <v>218321</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>195563</v>
+        <v>192368</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>245338</v>
+        <v>245097</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3076975279810313</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2756222321431674</v>
+        <v>0.2711192617058548</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3457748087706862</v>
+        <v>0.3454353741056509</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>101475</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>83222</v>
+        <v>84035</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>120852</v>
+        <v>119585</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2451722738094199</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2010715463965554</v>
+        <v>0.2030347476466881</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2919876175767259</v>
+        <v>0.2889273892495823</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>41</v>
@@ -4019,19 +4019,19 @@
         <v>44915</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33493</v>
+        <v>32967</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>58215</v>
+        <v>58441</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1519239203733548</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1132915221369572</v>
+        <v>0.1115125506603815</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1969140906977685</v>
+        <v>0.1976771120116839</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>140</v>
@@ -4040,19 +4040,19 @@
         <v>146390</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>124785</v>
+        <v>126772</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>168994</v>
+        <v>172626</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.206318750093439</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1758691954405073</v>
+        <v>0.1786703090087668</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2381764216515015</v>
+        <v>0.2432961122381364</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>32857</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22336</v>
+        <v>22557</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45325</v>
+        <v>45664</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07938465923663403</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05396651080051106</v>
+        <v>0.05449912478578046</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1095082227015026</v>
+        <v>0.1103289717063954</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -4090,19 +4090,19 @@
         <v>27985</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19540</v>
+        <v>19872</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>39228</v>
+        <v>39166</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09466095051695914</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06609266549724348</v>
+        <v>0.06721656036663591</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1326877124268619</v>
+        <v>0.1324797108860645</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -4111,19 +4111,19 @@
         <v>60842</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47021</v>
+        <v>46227</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>79640</v>
+        <v>76954</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08574978766712474</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06626991657298535</v>
+        <v>0.0651515766002226</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1122434450379216</v>
+        <v>0.1084579907843001</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>450325</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>413375</v>
+        <v>416720</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>486591</v>
+        <v>490866</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3189350743375932</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2927652170136602</v>
+        <v>0.295134764234791</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3446198329936314</v>
+        <v>0.3476468377332491</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>322</v>
@@ -4236,19 +4236,19 @@
         <v>347148</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>315850</v>
+        <v>317906</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>376410</v>
+        <v>380998</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3685832614986785</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3353535000751048</v>
+        <v>0.3375358650755296</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3996529085057147</v>
+        <v>0.4045240469854339</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>732</v>
@@ -4257,19 +4257,19 @@
         <v>797473</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>750394</v>
+        <v>749868</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>844476</v>
+        <v>843335</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.338801080845753</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3188000596355132</v>
+        <v>0.3185763672947129</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.358770180867833</v>
+        <v>0.3582850805482495</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>460635</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>425779</v>
+        <v>426558</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>499703</v>
+        <v>498262</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.32623631366358</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3015506036700912</v>
+        <v>0.3021020685003087</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3539060226507941</v>
+        <v>0.3528853262355258</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>312</v>
@@ -4307,19 +4307,19 @@
         <v>336589</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>306226</v>
+        <v>305455</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>366307</v>
+        <v>369617</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3573723863582318</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3251345118545295</v>
+        <v>0.3243166025910513</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3889254347211149</v>
+        <v>0.3924404132439466</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>754</v>
@@ -4328,19 +4328,19 @@
         <v>797223</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>752345</v>
+        <v>748354</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>845255</v>
+        <v>847682</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3386949643849766</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.319628822622814</v>
+        <v>0.3179331629027987</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3591010130733683</v>
+        <v>0.3601318477412287</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>341396</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>311763</v>
+        <v>309785</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>373791</v>
+        <v>376134</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2417878058191856</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2208004225169233</v>
+        <v>0.2194000771586247</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2647309813996259</v>
+        <v>0.2663901810365706</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>154</v>
@@ -4378,19 +4378,19 @@
         <v>171373</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>144824</v>
+        <v>144850</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>195258</v>
+        <v>195392</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1819545054499386</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1537665368826097</v>
+        <v>0.1537938835118202</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2073144841168136</v>
+        <v>0.2074568382192254</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>479</v>
@@ -4399,19 +4399,19 @@
         <v>512769</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>471929</v>
+        <v>471190</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>555920</v>
+        <v>555924</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2178463730598479</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2004956935633347</v>
+        <v>0.2001819966341724</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2361789056463564</v>
+        <v>0.2361804829185941</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>159610</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>134226</v>
+        <v>137076</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>182640</v>
+        <v>188530</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1130408061796412</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09506296996927964</v>
+        <v>0.09708153180411855</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1293517510299054</v>
+        <v>0.1335230520424364</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>82</v>
@@ -4449,19 +4449,19 @@
         <v>86734</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>70169</v>
+        <v>68606</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>107490</v>
+        <v>105084</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09208984669315097</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07450163821720973</v>
+        <v>0.07284182630467484</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1141268279118861</v>
+        <v>0.1115724980095523</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>230</v>
@@ -4470,19 +4470,19 @@
         <v>246344</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>214807</v>
+        <v>217913</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>281643</v>
+        <v>281902</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1046575817094225</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09125927129093586</v>
+        <v>0.09257879057131829</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1196543043872864</v>
+        <v>0.1197642288069459</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>72541</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59898</v>
+        <v>57790</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87948</v>
+        <v>86979</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3019854400963051</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2493556909280746</v>
+        <v>0.2405763002931465</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3661267331547797</v>
+        <v>0.362091237277933</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -4835,19 +4835,19 @@
         <v>64042</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51978</v>
+        <v>52264</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>76848</v>
+        <v>76979</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3922245836847909</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3183396988207378</v>
+        <v>0.3200892255437828</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4706570589550871</v>
+        <v>0.4714584519447637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>136</v>
@@ -4856,19 +4856,19 @@
         <v>136583</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>117996</v>
+        <v>118740</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>155840</v>
+        <v>155201</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3385020401600147</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2924377310411546</v>
+        <v>0.2942810728116192</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3862297171508165</v>
+        <v>0.3846454303587337</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>79873</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>64502</v>
+        <v>64976</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>94613</v>
+        <v>94296</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3325075653016772</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2685216970314391</v>
+        <v>0.2704945532820733</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3938732563047146</v>
+        <v>0.3925507017331269</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -4906,19 +4906,19 @@
         <v>50149</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40091</v>
+        <v>38167</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61401</v>
+        <v>60514</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3071389160859634</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2455355162417707</v>
+        <v>0.2337547556240315</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3760521731757518</v>
+        <v>0.3706182156809891</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>130</v>
@@ -4927,19 +4927,19 @@
         <v>130022</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>110657</v>
+        <v>113075</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>148718</v>
+        <v>150460</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3222417673261193</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.274247867158302</v>
+        <v>0.2802423642388769</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3685775660009193</v>
+        <v>0.372894790639763</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>57605</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45506</v>
+        <v>44618</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>71422</v>
+        <v>71229</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2398067008007096</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1894384269505582</v>
+        <v>0.1857423482318622</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.297328862428629</v>
+        <v>0.2965236064010464</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -4977,19 +4977,19 @@
         <v>27204</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18581</v>
+        <v>18955</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36668</v>
+        <v>36864</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1666123346116445</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1137997960125064</v>
+        <v>0.1160896030786</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2245725324665391</v>
+        <v>0.2257730481772665</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>84</v>
@@ -4998,19 +4998,19 @@
         <v>84809</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>69866</v>
+        <v>69228</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>101975</v>
+        <v>102777</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2101875212434267</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1731526696707104</v>
+        <v>0.1715716474937349</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2527308672471955</v>
+        <v>0.2547191945493713</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>30195</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20490</v>
+        <v>20402</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41453</v>
+        <v>42302</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1257002938013081</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08530012936171961</v>
+        <v>0.08493449440039923</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1725665481764851</v>
+        <v>0.1761039239526301</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -5048,19 +5048,19 @@
         <v>21883</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14363</v>
+        <v>13898</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31421</v>
+        <v>32996</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1340241656176012</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0879689904884203</v>
+        <v>0.08511900211312715</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1924383687837997</v>
+        <v>0.2020860461978644</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -5069,19 +5069,19 @@
         <v>52078</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39335</v>
+        <v>40324</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68521</v>
+        <v>66774</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1290686712704394</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09748630216508124</v>
+        <v>0.0999369735003164</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1698196583143764</v>
+        <v>0.1654905726049799</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>130987</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>110475</v>
+        <v>111101</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>150150</v>
+        <v>150601</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3205522065197104</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2703550337525498</v>
+        <v>0.2718869282629108</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3674477117202093</v>
+        <v>0.3685510444735831</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>101</v>
@@ -5194,19 +5194,19 @@
         <v>103884</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>87858</v>
+        <v>89350</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>119355</v>
+        <v>119931</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3808766961386467</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3221196937224206</v>
+        <v>0.3275865049911008</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4375985913039958</v>
+        <v>0.4397082938221898</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>214</v>
@@ -5215,19 +5215,19 @@
         <v>234872</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>211539</v>
+        <v>207838</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>263623</v>
+        <v>259803</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3446995978760372</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3104567632491539</v>
+        <v>0.3050247693987254</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3868957938678068</v>
+        <v>0.3812885480941399</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>128915</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108833</v>
+        <v>111766</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148968</v>
+        <v>150940</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3154806520961806</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2663350783514254</v>
+        <v>0.2735129035116803</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3645547930731826</v>
+        <v>0.3693801165616333</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>85</v>
@@ -5265,19 +5265,19 @@
         <v>86813</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73213</v>
+        <v>71998</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>104239</v>
+        <v>103419</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3182852264452717</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2684258207547845</v>
+        <v>0.2639696281445528</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3821779345584898</v>
+        <v>0.3791703392085174</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>201</v>
@@ -5286,19 +5286,19 @@
         <v>215727</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>190849</v>
+        <v>193511</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>241638</v>
+        <v>242972</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.316603299876928</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2800914323055028</v>
+        <v>0.2839982448938848</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3546299450532437</v>
+        <v>0.356587954360243</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>96643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>80008</v>
+        <v>80922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>115779</v>
+        <v>115363</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.236505258867295</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1957949857910697</v>
+        <v>0.1980332340944954</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2833354932555987</v>
+        <v>0.2823167417286986</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>60</v>
@@ -5336,19 +5336,19 @@
         <v>60476</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47950</v>
+        <v>48775</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75801</v>
+        <v>76391</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2217257070888681</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1758008787478072</v>
+        <v>0.1788245195419277</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2779143235877135</v>
+        <v>0.2800776453580721</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>150</v>
@@ -5357,19 +5357,19 @@
         <v>157119</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>134505</v>
+        <v>134894</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>181289</v>
+        <v>181393</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2305891272411645</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1974011821578782</v>
+        <v>0.1979709268196546</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2660610485442212</v>
+        <v>0.2662138558929745</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>52085</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>38913</v>
+        <v>38660</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>66642</v>
+        <v>67466</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1274618825168141</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09522783894754848</v>
+        <v>0.09460832986897691</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1630859979401992</v>
+        <v>0.1651020796626769</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>20</v>
@@ -5407,19 +5407,19 @@
         <v>21578</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14207</v>
+        <v>13677</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33274</v>
+        <v>32254</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07911237032721347</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05208665799586563</v>
+        <v>0.05014634688528103</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1219947093530148</v>
+        <v>0.1182555461414844</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>68</v>
@@ -5428,19 +5428,19 @@
         <v>73663</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>58848</v>
+        <v>57615</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>90905</v>
+        <v>91175</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1081079750058703</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08636540468902482</v>
+        <v>0.08455579022635448</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1334132228746986</v>
+        <v>0.133809033326518</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>72457</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57183</v>
+        <v>57042</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>88373</v>
+        <v>89084</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2003478584231064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1581160188453842</v>
+        <v>0.1577259216572319</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2443570790879064</v>
+        <v>0.2463237087392158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -5553,19 +5553,19 @@
         <v>72804</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57461</v>
+        <v>60127</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88083</v>
+        <v>88640</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2701209287942151</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2131954637940297</v>
+        <v>0.2230856620382935</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3268077018480849</v>
+        <v>0.328876129485548</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>139</v>
@@ -5574,19 +5574,19 @@
         <v>145261</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>123380</v>
+        <v>125025</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>168058</v>
+        <v>169604</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2301421791150758</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1954756452331515</v>
+        <v>0.1980826509751809</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2662610947972271</v>
+        <v>0.2687102328217846</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>136454</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>117505</v>
+        <v>117108</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>157114</v>
+        <v>156823</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3773042178324205</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.324910013206731</v>
+        <v>0.3238117243236312</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4344316796981274</v>
+        <v>0.4336283656102599</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>92</v>
@@ -5624,19 +5624,19 @@
         <v>92536</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>77066</v>
+        <v>76223</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>108990</v>
+        <v>108336</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3433308132993701</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2859341022893511</v>
+        <v>0.282806870556985</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4043786705860983</v>
+        <v>0.4019516920702387</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>213</v>
@@ -5645,19 +5645,19 @@
         <v>228989</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>205106</v>
+        <v>204750</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>254993</v>
+        <v>252031</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3627969802367128</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3249578113959148</v>
+        <v>0.3243935865977531</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4039951024114365</v>
+        <v>0.3993032601526941</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>81375</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65014</v>
+        <v>65884</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99621</v>
+        <v>100561</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2250089122060701</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.17976834337791</v>
+        <v>0.1821742332843717</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2754580745889568</v>
+        <v>0.2780586386980469</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>63</v>
@@ -5695,19 +5695,19 @@
         <v>65305</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51958</v>
+        <v>51243</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>79964</v>
+        <v>79143</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2422992646060309</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1927751567416246</v>
+        <v>0.1901237065147905</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2966875143591265</v>
+        <v>0.2936409027905603</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>136</v>
@@ -5716,19 +5716,19 @@
         <v>146681</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>127198</v>
+        <v>125711</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>169162</v>
+        <v>168939</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2323921949187498</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2015252377932583</v>
+        <v>0.199169169746252</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2680106203176214</v>
+        <v>0.2676561582654291</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>71368</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57761</v>
+        <v>56637</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90094</v>
+        <v>87660</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.197339011538403</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1597141045514311</v>
+        <v>0.1566054534067527</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2491172500277663</v>
+        <v>0.2423867582763317</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -5766,19 +5766,19 @@
         <v>38879</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27944</v>
+        <v>28680</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52160</v>
+        <v>52393</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1442489933003839</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1036807094000928</v>
+        <v>0.1064097575378997</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1935250980647689</v>
+        <v>0.1943910775067192</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>101</v>
@@ -5787,19 +5787,19 @@
         <v>110247</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>91089</v>
+        <v>92091</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>130755</v>
+        <v>132380</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1746686457294616</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1443152792472623</v>
+        <v>0.1459034203153448</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2071604602977849</v>
+        <v>0.2097345884602492</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>162252</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>142905</v>
+        <v>142354</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>181919</v>
+        <v>182168</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4104235856720584</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.36148383500224</v>
+        <v>0.3600893000836241</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4601700081578873</v>
+        <v>0.4607998353679733</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>143</v>
@@ -5912,19 +5912,19 @@
         <v>152255</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>134839</v>
+        <v>134699</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>170522</v>
+        <v>172693</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.469233069913001</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4155586040861747</v>
+        <v>0.4151279248974724</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5255279926570963</v>
+        <v>0.5322183272679889</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>301</v>
@@ -5933,19 +5933,19 @@
         <v>314508</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>290784</v>
+        <v>289470</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>340850</v>
+        <v>342909</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4369339723637248</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4039749392182346</v>
+        <v>0.4021500121620762</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4735307574935257</v>
+        <v>0.4763911611054826</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>112496</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>94477</v>
+        <v>94723</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>130111</v>
+        <v>130333</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.284562967501522</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2389831405488325</v>
+        <v>0.2396059652372138</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3291207521802805</v>
+        <v>0.3296818356683656</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>83</v>
@@ -5983,19 +5983,19 @@
         <v>86519</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>72315</v>
+        <v>71372</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>103829</v>
+        <v>102761</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2666405541303949</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2228676203801785</v>
+        <v>0.2199610999067259</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3199898937461887</v>
+        <v>0.3166977687160452</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>193</v>
@@ -6004,19 +6004,19 @@
         <v>199015</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>177132</v>
+        <v>173588</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>222719</v>
+        <v>223996</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2764838266104055</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2460830740480925</v>
+        <v>0.2411600279441093</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3094150677350252</v>
+        <v>0.3111893556089293</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>85417</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>70995</v>
+        <v>71389</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>103997</v>
+        <v>102411</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.216066668472895</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1795847485664954</v>
+        <v>0.1805806451228931</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2630633940086869</v>
+        <v>0.2590537985123136</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>54</v>
@@ -6054,19 +6054,19 @@
         <v>57556</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>44555</v>
+        <v>43762</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>72853</v>
+        <v>73535</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1773817775472432</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1373125700572076</v>
+        <v>0.1348683261263971</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2245231404340472</v>
+        <v>0.2266253732703415</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>140</v>
@@ -6075,19 +6075,19 @@
         <v>142974</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>123095</v>
+        <v>120835</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>166320</v>
+        <v>163549</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1986281306111739</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1710117705065243</v>
+        <v>0.1678721991068474</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2310626369906303</v>
+        <v>0.2272123912245123</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>35163</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25303</v>
+        <v>24007</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48848</v>
+        <v>48157</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08894677835352453</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06400440556098153</v>
+        <v>0.0607276593893469</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1235620360421881</v>
+        <v>0.1218146569575345</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -6125,19 +6125,19 @@
         <v>28147</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18053</v>
+        <v>18637</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40569</v>
+        <v>39207</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08674459840936093</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05563723517274249</v>
+        <v>0.05743703304783498</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1250285778873007</v>
+        <v>0.1208326537095095</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>59</v>
@@ -6146,19 +6146,19 @@
         <v>63310</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>48505</v>
+        <v>48272</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>79480</v>
+        <v>81594</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08795407041469576</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06738560912423049</v>
+        <v>0.06706199379362943</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1104189678710757</v>
+        <v>0.1133557620034359</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>438237</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>404402</v>
+        <v>406319</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>474049</v>
+        <v>477584</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3117292066669236</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2876615681177291</v>
+        <v>0.2890255797223305</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3372037687852541</v>
+        <v>0.339718290243312</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>383</v>
@@ -6271,19 +6271,19 @@
         <v>392986</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>360567</v>
+        <v>361922</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>424244</v>
+        <v>425803</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3815282877340955</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3500546583382252</v>
+        <v>0.3513697773686018</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4118748239283955</v>
+        <v>0.4133889677174943</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>790</v>
@@ -6292,19 +6292,19 @@
         <v>831223</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>780380</v>
+        <v>786354</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>877211</v>
+        <v>881344</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.34124458607894</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3203721152324249</v>
+        <v>0.3228246419241287</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3601242298133628</v>
+        <v>0.3618212329389401</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>457737</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>426302</v>
+        <v>420434</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>494569</v>
+        <v>494490</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3256000912173072</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3032393905631542</v>
+        <v>0.2990654812486779</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3517995463493412</v>
+        <v>0.3517437546097935</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>313</v>
@@ -6342,19 +6342,19 @@
         <v>316017</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>284411</v>
+        <v>287631</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>343554</v>
+        <v>347483</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.306802961492222</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2761192916416888</v>
+        <v>0.2792451555416058</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3335377091364105</v>
+        <v>0.3373524609692092</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>737</v>
@@ -6363,19 +6363,19 @@
         <v>773753</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>731131</v>
+        <v>726352</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>821670</v>
+        <v>823401</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3176514992414493</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.300153636738891</v>
+        <v>0.2981916507785099</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3373229350836898</v>
+        <v>0.3380335061018665</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>321040</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>289702</v>
+        <v>289045</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>354025</v>
+        <v>352471</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2283644042935244</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2060725960026524</v>
+        <v>0.2056049225140353</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2518270757295383</v>
+        <v>0.2507218573689393</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>206</v>
@@ -6413,19 +6413,19 @@
         <v>210542</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>183546</v>
+        <v>184885</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>236427</v>
+        <v>239295</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2044035419069702</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1781947343573157</v>
+        <v>0.1794944725107689</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2295338827700104</v>
+        <v>0.2323183274816437</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>510</v>
@@ -6434,19 +6434,19 @@
         <v>531582</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>492629</v>
+        <v>490420</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>573607</v>
+        <v>574555</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2182322659678398</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2022406650387336</v>
+        <v>0.2013337075506973</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2354847176957973</v>
+        <v>0.235873834711634</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>188811</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>162904</v>
+        <v>162027</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>216353</v>
+        <v>217236</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1343062978222448</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1158780830616908</v>
+        <v>0.1152537481498158</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1538978150433204</v>
+        <v>0.1545258442915541</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>104</v>
@@ -6484,19 +6484,19 @@
         <v>110486</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>91063</v>
+        <v>91862</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>132087</v>
+        <v>132908</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1072652088667123</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08840778330457101</v>
+        <v>0.0891839371848851</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1282356789597064</v>
+        <v>0.1290331572662572</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>276</v>
@@ -6505,19 +6505,19 @@
         <v>299298</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>267438</v>
+        <v>267214</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>333407</v>
+        <v>333805</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.122871648711771</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1097921871100336</v>
+        <v>0.1097003956610641</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1368745607793962</v>
+        <v>0.1370379393635456</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>44426</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32073</v>
+        <v>31831</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62592</v>
+        <v>60619</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2301704644619555</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1661710416908272</v>
+        <v>0.1649133698792234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3242867087482322</v>
+        <v>0.3140636597093993</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -6870,19 +6870,19 @@
         <v>28208</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19729</v>
+        <v>19536</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39033</v>
+        <v>38137</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2064949765278872</v>
+        <v>0.2064949765278871</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1444242732215846</v>
+        <v>0.1430124535262774</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2857316362054724</v>
+        <v>0.279175889327001</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -6891,19 +6891,19 @@
         <v>72634</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57214</v>
+        <v>57361</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92173</v>
+        <v>91039</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2203585134721888</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1735769824955809</v>
+        <v>0.1740223152648455</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2796346935754349</v>
+        <v>0.2761956974163256</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>66836</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52709</v>
+        <v>52067</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82750</v>
+        <v>81227</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3462743903372759</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2730830297881481</v>
+        <v>0.2697589404050795</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4287248124579435</v>
+        <v>0.4208362095268748</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>86</v>
@@ -6941,19 +6941,19 @@
         <v>53028</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43508</v>
+        <v>42331</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63004</v>
+        <v>63031</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.388182528406294</v>
+        <v>0.3881825284062939</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3184945998862058</v>
+        <v>0.3098792776136563</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4612114510816172</v>
+        <v>0.4614091208996157</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>150</v>
@@ -6962,19 +6962,19 @@
         <v>119864</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>101581</v>
+        <v>102357</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>137246</v>
+        <v>137208</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3636425897995509</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3081778894823429</v>
+        <v>0.3105310141029811</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4163789023793482</v>
+        <v>0.4162638719435951</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>43910</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32767</v>
+        <v>32297</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57989</v>
+        <v>57475</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2274972187441673</v>
+        <v>0.2274972187441674</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1697639921177617</v>
+        <v>0.1673309543974914</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.300437874314282</v>
+        <v>0.2977763223438897</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>46</v>
@@ -7012,19 +7012,19 @@
         <v>31781</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23146</v>
+        <v>23975</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40446</v>
+        <v>41081</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2326494420350513</v>
+        <v>0.2326494420350511</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1694380190569238</v>
+        <v>0.1755040568818614</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2960772939591444</v>
+        <v>0.3007252231698361</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>87</v>
@@ -7033,19 +7033,19 @@
         <v>75691</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>61040</v>
+        <v>61602</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>90769</v>
+        <v>92269</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2296324804358912</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1851837377056584</v>
+        <v>0.1868881600886595</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2753746675274434</v>
+        <v>0.2799252048493383</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>37842</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24767</v>
+        <v>25918</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54094</v>
+        <v>56272</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1960579264566011</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1283159599178853</v>
+        <v>0.1342799207108395</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2802616186550209</v>
+        <v>0.2915418244776491</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -7083,19 +7083,19 @@
         <v>23588</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15549</v>
+        <v>16492</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33241</v>
+        <v>34042</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1726730530307675</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1138257103866071</v>
+        <v>0.1207255875556071</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2433376224468201</v>
+        <v>0.2491953688705955</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -7104,19 +7104,19 @@
         <v>61430</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46362</v>
+        <v>46339</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80562</v>
+        <v>81835</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.186366416292369</v>
+        <v>0.1863664162923691</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1406541869958498</v>
+        <v>0.140583441409167</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2444105056191138</v>
+        <v>0.2482724945437924</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>93818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>76665</v>
+        <v>76946</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>112313</v>
+        <v>114445</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2839189109696342</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2320087700221355</v>
+        <v>0.2328593668684698</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3398903052630489</v>
+        <v>0.3463423809605862</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>83</v>
@@ -7229,19 +7229,19 @@
         <v>64199</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>52434</v>
+        <v>52255</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>77320</v>
+        <v>76379</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2954576011820478</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.241314460400949</v>
+        <v>0.2404865417239896</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3558444929128843</v>
+        <v>0.3515103242753436</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>160</v>
@@ -7250,19 +7250,19 @@
         <v>158016</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>138406</v>
+        <v>135070</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>180597</v>
+        <v>177518</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2884964018650322</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2526924469659409</v>
+        <v>0.2466031953284974</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3297224419056931</v>
+        <v>0.3241014665014774</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>107675</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>88471</v>
+        <v>90437</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>127811</v>
+        <v>128383</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3258558910693186</v>
+        <v>0.3258558910693187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2677399520013783</v>
+        <v>0.2736875076085664</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3867917366564359</v>
+        <v>0.3885239662971747</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>120</v>
@@ -7300,19 +7300,19 @@
         <v>86857</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73688</v>
+        <v>74806</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>99415</v>
+        <v>100174</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3997329716524683</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3391262094415927</v>
+        <v>0.3442746608827342</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4575270222522403</v>
+        <v>0.4610194671981663</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>220</v>
@@ -7321,19 +7321,19 @@
         <v>194532</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>171777</v>
+        <v>173360</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>219773</v>
+        <v>217373</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3551635210968703</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.313619764728234</v>
+        <v>0.3165099077372226</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4012470075484983</v>
+        <v>0.3968655856701493</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>92443</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>75732</v>
+        <v>73779</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113557</v>
+        <v>111842</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2797581547444119</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2291871637029385</v>
+        <v>0.2232771252245661</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3436553205687097</v>
+        <v>0.3384661779340579</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>59</v>
@@ -7371,19 +7371,19 @@
         <v>43828</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34798</v>
+        <v>34136</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55556</v>
+        <v>54414</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2017077568259044</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1601473397631156</v>
+        <v>0.1571006239009486</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2556791649148185</v>
+        <v>0.2504241334537078</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>135</v>
@@ -7392,19 +7392,19 @@
         <v>136271</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>114954</v>
+        <v>116239</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>156608</v>
+        <v>156972</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2487949362787847</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2098755549561976</v>
+        <v>0.2122222503955811</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2859245607609038</v>
+        <v>0.28659026368548</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>36503</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24492</v>
+        <v>24664</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51276</v>
+        <v>51622</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1104670432166353</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07411879977339049</v>
+        <v>0.07464072377029278</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1551753990758923</v>
+        <v>0.1562242504737303</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -7442,19 +7442,19 @@
         <v>22403</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15775</v>
+        <v>14922</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32422</v>
+        <v>32103</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1031016703395794</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0725990930430567</v>
+        <v>0.06867644838318224</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1492119124252927</v>
+        <v>0.1477444698562972</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>54</v>
@@ -7463,19 +7463,19 @@
         <v>58905</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>43747</v>
+        <v>45559</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>75919</v>
+        <v>77047</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1075451407593128</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07987123151188198</v>
+        <v>0.08317834022907869</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1386085965309866</v>
+        <v>0.1406684605581802</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>57772</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43491</v>
+        <v>44602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>72750</v>
+        <v>73682</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2877822951848802</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2166420317543545</v>
+        <v>0.2221757766766155</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3623932176285438</v>
+        <v>0.3670358332734872</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -7588,19 +7588,19 @@
         <v>50445</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40680</v>
+        <v>39586</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>61828</v>
+        <v>60934</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.330607568474545</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2666060147170212</v>
+        <v>0.2594364042608968</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4052062208615787</v>
+        <v>0.3993501219663613</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>113</v>
@@ -7609,19 +7609,19 @@
         <v>108217</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90686</v>
+        <v>91042</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>124779</v>
+        <v>126264</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3062759420568616</v>
+        <v>0.3062759420568615</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2566586667170127</v>
+        <v>0.2576659617127308</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3531504987756854</v>
+        <v>0.3573528036720821</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>64808</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>50817</v>
+        <v>50881</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>82143</v>
+        <v>82477</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3228331106760811</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2531375698913431</v>
+        <v>0.2534571008762498</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4091848516708098</v>
+        <v>0.4108452686196731</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>62</v>
@@ -7659,19 +7659,19 @@
         <v>49855</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>39940</v>
+        <v>40414</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>60302</v>
+        <v>60220</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3267398874191325</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2617576432705431</v>
+        <v>0.2648629139058244</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3952093734812371</v>
+        <v>0.3946723871670015</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>113</v>
@@ -7680,19 +7680,19 @@
         <v>114663</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>98222</v>
+        <v>96821</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>134990</v>
+        <v>132516</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3245202113982403</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2779874090426217</v>
+        <v>0.274022321213664</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3820486807502887</v>
+        <v>0.3750461046514773</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>43095</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29381</v>
+        <v>30377</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58494</v>
+        <v>57572</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2146723486538323</v>
+        <v>0.2146723486538324</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1463556785999735</v>
+        <v>0.1513200480561598</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2913783127684519</v>
+        <v>0.2867842866864902</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -7730,19 +7730,19 @@
         <v>40321</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30483</v>
+        <v>30861</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50608</v>
+        <v>51188</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.26425573896544</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.199781181701682</v>
+        <v>0.2022569626318144</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3316726757195613</v>
+        <v>0.3354774389381388</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>83</v>
@@ -7751,19 +7751,19 @@
         <v>83416</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67922</v>
+        <v>67273</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>103488</v>
+        <v>103104</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2360844177592918</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1922341062642726</v>
+        <v>0.1903955922502941</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.292891608748053</v>
+        <v>0.2918047268522341</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>35073</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23195</v>
+        <v>22168</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52443</v>
+        <v>52227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1747122454852064</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1155408803722372</v>
+        <v>0.1104278849152813</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2612374207502453</v>
+        <v>0.2601625709163856</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -7801,19 +7801,19 @@
         <v>11962</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6812</v>
+        <v>7225</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18547</v>
+        <v>18536</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.07839680514088244</v>
+        <v>0.07839680514088243</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04464753921747888</v>
+        <v>0.04735031579924336</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.121550588142066</v>
+        <v>0.1214811908153911</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -7822,19 +7822,19 @@
         <v>47035</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32787</v>
+        <v>33699</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65817</v>
+        <v>66803</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1331194287856062</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09279250633833408</v>
+        <v>0.09537601600317734</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1862750552465392</v>
+        <v>0.1890662843879483</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>106050</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>89496</v>
+        <v>90683</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123047</v>
+        <v>123054</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4331825758309799</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3655648134234334</v>
+        <v>0.3704104402019928</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5026067294149139</v>
+        <v>0.5026349773290881</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>113</v>
@@ -7947,19 +7947,19 @@
         <v>88102</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>75052</v>
+        <v>75282</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>100955</v>
+        <v>100263</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4300830715192553</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3663802577107242</v>
+        <v>0.3675031770911979</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.492826905990468</v>
+        <v>0.4894513536346884</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>207</v>
@@ -7968,19 +7968,19 @@
         <v>194152</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>172494</v>
+        <v>174258</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>215964</v>
+        <v>214455</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4317705754681209</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3836052555621179</v>
+        <v>0.3875283868888464</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4802765856643285</v>
+        <v>0.4769224861075079</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>71865</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>57733</v>
+        <v>57269</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87089</v>
+        <v>87192</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2935466709924279</v>
+        <v>0.2935466709924278</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2358226985792336</v>
+        <v>0.2339237843531722</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.355732531177135</v>
+        <v>0.3561515836792157</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>83</v>
@@ -8018,19 +8018,19 @@
         <v>59489</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47056</v>
+        <v>48845</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70688</v>
+        <v>71091</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2904044851420519</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2297129451077861</v>
+        <v>0.2384456609348437</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3450730531718715</v>
+        <v>0.3470435756779214</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>153</v>
@@ -8039,19 +8039,19 @@
         <v>131354</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>112378</v>
+        <v>114232</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>150588</v>
+        <v>152142</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2921152267630658</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.249914619346178</v>
+        <v>0.2540378093855915</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3348895500766397</v>
+        <v>0.3383454526233697</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>36115</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25055</v>
+        <v>25051</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>49733</v>
+        <v>49437</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1475186854257396</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1023400991169006</v>
+        <v>0.1023274135686068</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2031419877159893</v>
+        <v>0.2019347428785136</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>44</v>
@@ -8089,19 +8089,19 @@
         <v>36312</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>26945</v>
+        <v>27904</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47498</v>
+        <v>48162</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1772645976299813</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.131537860200421</v>
+        <v>0.1362203251633034</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2318698447964668</v>
+        <v>0.2351119256308851</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>76</v>
@@ -8110,19 +8110,19 @@
         <v>72427</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>57014</v>
+        <v>57820</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>88490</v>
+        <v>90134</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1610696389337175</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1267912299046021</v>
+        <v>0.1285836094534976</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1967907886125346</v>
+        <v>0.2004477938756137</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>30786</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20358</v>
+        <v>20855</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43582</v>
+        <v>44534</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1257520677508528</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08315464960957973</v>
+        <v>0.08518609762632891</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1780167059366893</v>
+        <v>0.1819088413238816</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -8160,19 +8160,19 @@
         <v>20945</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14210</v>
+        <v>14519</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30387</v>
+        <v>29015</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1022478457087116</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06936673464877051</v>
+        <v>0.07087859834948784</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1483386887719154</v>
+        <v>0.1416398163746374</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -8181,19 +8181,19 @@
         <v>51732</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38950</v>
+        <v>39242</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65930</v>
+        <v>66659</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1150445588350958</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08661945256116912</v>
+        <v>0.08726845620458071</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1466212051216053</v>
+        <v>0.1482424075154301</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>302066</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>272482</v>
+        <v>270698</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>337219</v>
+        <v>336839</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3117240990685232</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2811944370929703</v>
+        <v>0.2793530698792452</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3480003454171945</v>
+        <v>0.3476082640903074</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>297</v>
@@ -8306,19 +8306,19 @@
         <v>230954</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>209589</v>
+        <v>208290</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>254355</v>
+        <v>253934</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3246823521434246</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2946466134640044</v>
+        <v>0.2928202497077009</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3575800541110139</v>
+        <v>0.3569884941951787</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>549</v>
@@ -8327,19 +8327,19 @@
         <v>533020</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>494903</v>
+        <v>493959</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>572840</v>
+        <v>571083</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3172095969228061</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2945251927130882</v>
+        <v>0.2939637276782338</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3409067007449413</v>
+        <v>0.3398612933007931</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>311185</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>280154</v>
+        <v>278018</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>346048</v>
+        <v>342027</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3211339658626617</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2891111198864911</v>
+        <v>0.2869069635424353</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3571116516408814</v>
+        <v>0.3529621424758236</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>351</v>
@@ -8377,19 +8377,19 @@
         <v>249228</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>224162</v>
+        <v>228995</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>271994</v>
+        <v>272833</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3503727505596075</v>
+        <v>0.3503727505596074</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3151336991209522</v>
+        <v>0.3219279724253913</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3823775860841511</v>
+        <v>0.3835568672222386</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>636</v>
@@ -8398,19 +8398,19 @@
         <v>560413</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>521179</v>
+        <v>522563</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>604795</v>
+        <v>599137</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3335113511313282</v>
+        <v>0.3335113511313281</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3101625450996389</v>
+        <v>0.3109862278741354</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3599238111664935</v>
+        <v>0.3565569876007312</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>215563</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>186321</v>
+        <v>186089</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>246627</v>
+        <v>245453</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2224552852290849</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1922785339182619</v>
+        <v>0.1920389804441948</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2545122093976666</v>
+        <v>0.2533009246529803</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>198</v>
@@ -8448,19 +8448,19 @@
         <v>152243</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>134040</v>
+        <v>132135</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>172933</v>
+        <v>171010</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2140276261859682</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1884372566480478</v>
+        <v>0.1857596152657989</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2431149405227258</v>
+        <v>0.2404105237547457</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>381</v>
@@ -8469,19 +8469,19 @@
         <v>367806</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>333897</v>
+        <v>335785</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>404486</v>
+        <v>406215</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2188876819934924</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1987081227092153</v>
+        <v>0.1998316801205293</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2407163348350231</v>
+        <v>0.2417454552251102</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>140204</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>115295</v>
+        <v>116350</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>168076</v>
+        <v>170867</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1446866498397302</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1189815564564794</v>
+        <v>0.1200705105189127</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1734498541300763</v>
+        <v>0.1763302496672639</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>98</v>
@@ -8519,19 +8519,19 @@
         <v>78898</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>66019</v>
+        <v>64136</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>95197</v>
+        <v>96832</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1109172711109999</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09281165059008674</v>
+        <v>0.09016453204535964</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1338311671631693</v>
+        <v>0.1361289360035794</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>198</v>
@@ -8540,19 +8540,19 @@
         <v>219102</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>190054</v>
+        <v>190032</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>257644</v>
+        <v>253986</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1303913699523734</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1131045421733607</v>
+        <v>0.1130910883254194</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1533281720686754</v>
+        <v>0.1511515066679392</v>
       </c>
     </row>
     <row r="28">
